--- a/experiment/linear/ex9_1_8/compare/M-Estacionario/ex9_1_8_M-Estacionario.xlsx
+++ b/experiment/linear/ex9_1_8/compare/M-Estacionario/ex9_1_8_M-Estacionario.xlsx
@@ -494,13 +494,13 @@
         <v>0.0</v>
       </c>
       <c r="E2">
-        <v>0.00023499</v>
+        <v>0.00018693</v>
       </c>
       <c r="F2">
-        <v>0.04863888</v>
+        <v>0.01265751</v>
       </c>
       <c r="G2">
-        <v>0.000443947761</v>
+        <v>0.00034098274285714286</v>
       </c>
       <c r="H2">
         <v>1579</v>
@@ -535,13 +535,13 @@
         <v>-0.8292942231070177</v>
       </c>
       <c r="E3">
-        <v>0.00397917</v>
+        <v>0.00292806</v>
       </c>
       <c r="F3">
-        <v>0.02217042</v>
+        <v>0.00702603</v>
       </c>
       <c r="G3">
-        <v>0.005323137406616862</v>
+        <v>0.0032815819513797636</v>
       </c>
       <c r="H3">
         <v>3216</v>

--- a/experiment/linear/ex9_1_8/compare/M-Estacionario/ex9_1_8_M-Estacionario.xlsx
+++ b/experiment/linear/ex9_1_8/compare/M-Estacionario/ex9_1_8_M-Estacionario.xlsx
@@ -494,13 +494,13 @@
         <v>0.0</v>
       </c>
       <c r="E2">
-        <v>0.00018693</v>
+        <v>0.000265685</v>
       </c>
       <c r="F2">
-        <v>0.01265751</v>
+        <v>0.020644108</v>
       </c>
       <c r="G2">
-        <v>0.00034098274285714286</v>
+        <v>0.00045952245730000003</v>
       </c>
       <c r="H2">
         <v>1579</v>
@@ -535,13 +535,13 @@
         <v>-0.8292942231070177</v>
       </c>
       <c r="E3">
-        <v>0.00292806</v>
+        <v>0.003364887</v>
       </c>
       <c r="F3">
-        <v>0.00702603</v>
+        <v>0.008328978</v>
       </c>
       <c r="G3">
-        <v>0.0032815819513797636</v>
+        <v>0.004769426563097514</v>
       </c>
       <c r="H3">
         <v>3216</v>
